--- a/biology/Médecine/Chambre_à_cathéter_implantable/Chambre_à_cathéter_implantable.xlsx
+++ b/biology/Médecine/Chambre_à_cathéter_implantable/Chambre_à_cathéter_implantable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chambre_%C3%A0_cath%C3%A9ter_implantable</t>
+          <t>Chambre_à_cathéter_implantable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une chambre à cathéter implantable ou cathéter à chambre implantable (CCI), aussi appelée chambre implantable percutanée (CIP), ou PAC d'après la marque Port-a-Cath, est un dispositif médical permettant une voie veineuse centrale permanente pour les traitements injectables ambulatoires à longue durée comme la chimiothérapie.
 La chambre est palpable sous la peau près de la clavicule droite et est prolongée d'un tube appelé cathéter d'une vingtaine de centimètres depuis la veine jugulaire interne ou la veine sous-clavière jusqu'à la veine cave supérieure.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chambre_%C3%A0_cath%C3%A9ter_implantable</t>
+          <t>Chambre_à_cathéter_implantable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Placement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le placement se fait en hôpital de jour lors d'une petite intervention chirurgicale réalisée par un radiologue interventionnel, un anesthésiste (sous guidage échographique et scopique) ou un chirurgien, sous anesthésie locale.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chambre_%C3%A0_cath%C3%A9ter_implantable</t>
+          <t>Chambre_à_cathéter_implantable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les indications du placement d'une chambre implantable sont les suivantes :
 nutrition parentérale de longue durée ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chambre_%C3%A0_cath%C3%A9ter_implantable</t>
+          <t>Chambre_à_cathéter_implantable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les complications d'une chambre implantable sont les suivantes :
 lors du placement du cathéter :
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chambre_%C3%A0_cath%C3%A9ter_implantable</t>
+          <t>Chambre_à_cathéter_implantable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Surveillances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lorsque le cathéter est en place : 
 vérifier la présence d'un reflux sanguin avant toute injection ;
